--- a/数据整理/stocks/A股/创业板/300223-北京君正.xlsx
+++ b/数据整理/stocks/A股/创业板/300223-北京君正.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,25 +502,35 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>008120</t>
+          <t>002560</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>万家自主创新混合A</t>
+          <t>诺安和鑫灵活配置混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>92.12</t>
+          <t>82.17</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>5.27</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
+          <t>94.68</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.3443</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>10</v>
       </c>
     </row>
@@ -520,25 +540,35 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>008121</t>
+          <t>008120</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>万家自主创新混合C</t>
+          <t>万家自主创新混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>46.19</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>92.12</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>5.27</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.4342</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>10</v>
       </c>
     </row>
@@ -548,26 +578,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>008633</t>
+          <t>161914</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>万家科技创新混合A</t>
+          <t>万家创业板2年定期开放混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>90.77</t>
+          <t>18.86</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>6.10</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>6</v>
+          <t>88.38</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.9147</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -576,25 +616,35 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>008634</t>
+          <t>008633</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>万家科技创新混合C</t>
+          <t>万家科技创新混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>7.49</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>90.77</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>6.10</t>
         </is>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4569</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>6</v>
       </c>
     </row>
@@ -614,15 +664,25 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
+          <t>10.51</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>99.47</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>2.17</t>
         </is>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2281</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>10</v>
       </c>
     </row>
@@ -632,26 +692,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>007614</t>
+          <t>008121</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>德邦民裕进取量化精锐股票A</t>
+          <t>万家自主创新混合C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>90.69</t>
+          <t>3.85</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>1.04</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>4</v>
+          <t>92.12</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2029</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="8">
@@ -660,26 +730,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>007615</t>
+          <t>008634</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>德邦民裕进取量化精锐股票C</t>
+          <t>万家科技创新混合C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>90.69</t>
+          <t>2.31</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>1.04</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>4</v>
+          <t>90.77</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.10</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1409</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="9">
@@ -688,26 +768,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>002560</t>
+          <t>161915</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>诺安和鑫灵活配置混合</t>
+          <t>万家创业板2年定期开放混合C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>94.68</t>
+          <t>2.62</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>4.07</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>10</v>
+          <t>88.38</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1271</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="10">
@@ -716,26 +806,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>161914</t>
+          <t>007614</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>万家创业板2年定期开放混合A</t>
+          <t>德邦民裕进取量化精锐股票A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>88.38</t>
+          <t>0.43</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>4.85</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>9</v>
+          <t>90.69</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="11">
@@ -744,26 +844,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>161915</t>
+          <t>007615</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>万家创业板2年定期开放混合C</t>
+          <t>德邦民裕进取量化精锐股票C</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>88.38</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>4.85</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>9</v>
+          <t>90.69</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -777,7 +887,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -798,15 +908,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -828,15 +948,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>17.42</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>94.05</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>5.84</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.0173</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>8</v>
       </c>
     </row>
@@ -856,15 +986,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>94.05</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>5.84</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1530</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>8</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300223-北京君正.xlsx
+++ b/数据整理/stocks/A股/创业板/300223-北京君正.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1011,4 +1012,1656 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H43"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010391</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达战略新兴产业股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>91.83</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>75.74</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.0579</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001071</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华安媒体互联网混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>45.86</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>82.16</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.3297</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010115</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达远见成长混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>60.72</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>68.58</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.6698</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>161914</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>万家创业板2年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>22.06</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>98.01</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.25</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.3788</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>006879</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华安智能生活混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>25.60</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>82.99</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.2826</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>040007</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华安中小盘成长混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>24.04</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.58</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.9977</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>161017</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>富国中证500指数增强(LOF)</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>59.10</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.15</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.7860</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>040025</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华安科技动力混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>12.51</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.33</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.5204</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>519909</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华安安顺灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>10.94</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>86.27</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.5196</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>007460</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华安成长创新混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>8.20</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>83.20</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.4059</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001072</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华安智能装备主题股票</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>8.24</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>88.59</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3123</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001556</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>天弘中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>18.69</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.3065</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>006122</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华安低碳生活混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>6.27</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.49</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2358</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>161915</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>万家创业板2年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>98.01</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>6.25</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2069</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001581</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华安沪港深通精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>7.68</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>85.31</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2058</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>000063</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>长盛电子信息主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.28</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1916</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010392</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>易方达战略新兴产业股票C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>75.74</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1812</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>008635</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华安科技创新混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>89.91</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1677</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>001437</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>易方达瑞享灵活配置混合I</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1329</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>001438</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>易方达瑞享灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1329</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>002133</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>广发鑫益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>84.09</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1313</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>002419</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>汇添富盈安灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>89.75</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1100</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>001557</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>天弘中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>6.71</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1100</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>005855</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>中科沃土沃瑞灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>61.07</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0986</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>011412</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>易方达远见成长混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>68.58</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0803</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>005856</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>中科沃土沃瑞灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>61.07</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0653</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>002772</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>光大保德信产业新动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>92.95</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0466</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>001411</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>诺安创新驱动灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>81.81</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0311</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>005090</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>嘉合睿金定期开放灵活配置混合型发起式A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>89.24</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0249</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>161037</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>富国中证高端制造指数增强（LOF）</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>93.94</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0202</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>005635</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>博时量化多策略股票A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>91.58</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0178</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>006401</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>先锋量化优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>76.69</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0167</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>001351</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>诺安中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>94.97</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0147</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>005091</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>嘉合睿金定期开放灵活配置混合型发起式C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>89.24</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0131</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>002051</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>诺安创新驱动灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>81.81</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0074</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>161038</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>富国新兴成长量化精选混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>93.31</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>006402</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>先锋量化优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>76.69</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>160415</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>华安量化多因子混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>004724</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>先锋聚元灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>93.32</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>004725</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>先锋聚元灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>93.32</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>005636</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>博时量化多策略股票C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>91.58</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>010355</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>诺安中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>94.97</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300223-北京君正.xlsx
+++ b/数据整理/stocks/A股/创业板/300223-北京君正.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2664,4 +2665,2528 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H66"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>320007</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>诺安成长混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>253.85</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.03</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>12.1848</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010391</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达战略新兴产业股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>61.79</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.38</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.12</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>5.0173</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>000404</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达新兴成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>47.47</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>87.89</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.6251</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009808</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>易方达创新成长混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>46.59</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>87.64</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.4693</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>180031</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>银华中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>48.18</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.97</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.2115</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>512480</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国联安中证全指半导体产品与设备ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>90.63</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>98.22</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2.1751</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010115</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>易方达远见成长混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>41.63</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.82</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2.1231</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001071</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华安媒体互联网混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>46.29</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.45</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.6664</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>270021</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>广发聚瑞混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>26.23</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>82.02</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.1410</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010013</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>易方达信息行业精选股票</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>39.34</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>90.42</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.0228</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>006879</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华安智能生活混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>24.12</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.60</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.9479</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>161017</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>富国中证500指数增强(LOF)</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>91.57</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.79</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.9249</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011136</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>广发盛兴混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>32.74</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>81.26</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.9167</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>001513</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>易方达信息产业混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>35.11</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>83.97</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.8497</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>007346</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>易方达科技创新混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>9.72</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>84.58</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.99</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.5822</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010392</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>易方达战略新兴产业股票C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>88.38</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>8.12</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.3500</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>007460</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华安成长创新混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>8.62</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>89.14</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.2983</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>002133</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>广发鑫益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>81.09</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1867</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>512330</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>南方中证500信息技术指数ETF</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>6.46</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>99.16</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1744</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>001437</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>易方达瑞享灵活配置混合I</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.61</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>6.78</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1695</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>001438</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>易方达瑞享灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.61</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>6.78</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1695</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>002419</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>汇添富盈安灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>82.32</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1536</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>001411</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>诺安创新驱动灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>80.62</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1325</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>630015</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>华商大盘量化精选混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>92.90</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1183</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>011412</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>易方达远见成长混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>92.82</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1163</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>001637</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>嘉实腾讯自选股大数据策略股票</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>88.55</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1044</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>011137</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>广发盛兴混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>81.26</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0882</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>004314</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>前海开源沪港深新硬件主题灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>93.68</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>5.78</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0769</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>007685</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>华商电子行业量化股票</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>91.88</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0739</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>001305</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>九泰天富改革新动力混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>92.21</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0731</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>009981</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>万家创业板指数增强A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0492</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>009613</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>上银中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0413</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>002051</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>诺安创新驱动灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>80.62</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0408</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>010026</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>广发聚瑞混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>82.02</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0370</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>004315</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>前海开源沪港深新硬件主题灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>93.68</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>5.78</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0353</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>005381</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>泰康睿利量化多策略混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>89.38</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0344</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>161037</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>富国中证高端制造指数增强（LOF）</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0337</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>009614</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>上银中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0290</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>010303</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化创盈混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>85.99</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0268</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>011500</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>九泰量化新兴产业混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>79.00</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0246</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>008778</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>嘉实中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0234</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>003241</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>创金合信量化发现灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>89.63</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0211</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>161038</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>富国新兴成长量化精选混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>93.04</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0157</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>005382</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>泰康睿利量化多策略混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>89.38</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0147</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>006729</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>万家中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>94.38</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0143</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>009982</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>万家创业板指数增强C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0127</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>003242</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>创金合信量化发现灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>89.63</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0108</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>006783</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>红土创新中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>93.53</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0097</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>165522</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>信诚中证TMT产业主题指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>94.21</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0097</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>008779</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>嘉实中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0090</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>165524</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>信诚中证智能家居指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0084</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>010304</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化创盈混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>85.99</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0082</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>009513</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>创金合信同顺创业板精选股票A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>93.68</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>006730</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>万家中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>94.38</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>009514</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>创金合信同顺创业板精选股票C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>93.68</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>005260</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>银华稳健增利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>92.17</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>005167</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>嘉实润泽量化一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>26.52</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>009918</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>上银核心成长混合A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>92.77</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>006784</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>红土创新中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>93.53</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>007943</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>富安达中证 500 指数增强</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>94.28</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>004790</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>富荣中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>93.28</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>009919</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>上银核心成长混合C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>92.77</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>004791</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>富荣中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>93.28</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>005261</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>银华稳健增利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>92.17</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>009912</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>九泰天富改革新动力混合C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>92.21</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G66" t="n">
+        <v>0</v>
+      </c>
+      <c r="H66" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300223-北京君正.xlsx
+++ b/数据整理/stocks/A股/创业板/300223-北京君正.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5189,4 +5190,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>65</v>
+      </c>
+      <c r="D2" t="n">
+        <v>39.7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>42</v>
+      </c>
+      <c r="D3" t="n">
+        <v>15.83</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>10</v>
+      </c>
+      <c r="D5" t="n">
+        <v>7.85</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300223-北京君正.xlsx
+++ b/数据整理/stocks/A股/创业板/300223-北京君正.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5198,7 +5199,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5209,17 +5210,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -5229,14 +5250,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>65</v>
-      </c>
-      <c r="D2" t="n">
-        <v>39.7</v>
+          <t>320007</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>诺安成长混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>274.08</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.57</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.65</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>20.9671</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -5245,14 +5288,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>42</v>
-      </c>
-      <c r="D3" t="n">
-        <v>15.83</v>
+          <t>010115</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达远见成长混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>75.59</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.28</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.97</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>5.2686</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -5261,14 +5326,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>2</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.17</v>
+          <t>001411</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>诺安创新驱动灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>61.70</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.66</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3.1776</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -5277,13 +5364,2393 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>010391</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>易方达战略新兴产业股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>53.61</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.09</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.8789</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>000404</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>易方达新兴成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>51.67</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.75</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.5577</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009808</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>易方达创新成长混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>44.17</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.22</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2.4824</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>180031</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>银华中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>43.83</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.61</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2.2090</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>007731</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>民生加银持续成长混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>40.98</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.56</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2.1555</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>310358</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>申万菱信新经济混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>50.87</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>80.72</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.7041</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>161914</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>万家创业板2年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>19.91</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>98.79</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7.18</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.4295</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>161017</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>富国中证500指数增强(LOF)</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>82.26</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.51</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.8637</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>040007</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华安中小盘成长混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>22.83</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.98</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.7260</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>007346</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>易方达科技创新混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>10.98</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.38</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.6072</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010330</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>东吴兴享成长混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>14.05</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>75.92</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.4299</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001072</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华安智能装备主题股票</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>10.61</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.11</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.3491</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>006864</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>国联安核心资产策略混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>7.29</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.51</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2683</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>013610</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>中信保诚前瞻优势混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>19.50</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>35.49</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.2613</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>006122</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华安低碳生活混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>7.94</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>92.17</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.2358</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>161915</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>万家创业板2年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>98.79</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>7.18</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.2140</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>010392</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>易方达战略新兴产业股票C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>92.09</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.2094</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>012210</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>申万菱信智能汽车股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>89.52</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>6.41</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1910</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>001437</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>易方达瑞享灵活配置混合I</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>91.14</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>6.62</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1417</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>001438</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>易方达瑞享灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>91.14</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>6.62</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1417</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>009882</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>华润元大核心动力混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>79.99</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>6.41</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1410</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>011412</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>易方达远见成长混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>88.28</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>6.97</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1387</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>008635</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>华安科技创新混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>92.42</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1301</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>011144</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>华安汇宏精选混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>92.82</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1037</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>012211</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>申万菱信智能汽车股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>89.52</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>6.41</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1013</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>002510</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>申万菱信中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>91.17</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0968</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>000522</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>华润元大信息传媒科技混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>72.00</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0936</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>460009</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化先行混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>9.13</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>90.58</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0813</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>007305</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>国联安新科技混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>87.84</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0756</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>002051</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>诺安创新驱动灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>93.66</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0680</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>005632</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>鹏华量化先锋混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>92.57</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0461</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>011254</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>长江量化科技精选一个月滚动持有股票型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>91.33</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0384</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>010153</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>中加中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0351</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>010303</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化创盈混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>90.48</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0281</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>007795</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>申万菱信中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>91.17</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0230</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>000531</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>东吴阿尔法灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>90.94</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0206</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>004930</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>华润元大价值优选混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>87.06</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0200</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>005000</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>泰康泉林量化价值精选混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>92.96</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0144</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>007732</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>民生加银持续成长混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>94.56</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0142</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>010066</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>方正富邦中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>91.06</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0141</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>011462</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>东吴兴享成长混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>75.92</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0119</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>004931</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>华润元大价值优选混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>87.06</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0110</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>004135</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>申万菱信量化成长混合</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>92.47</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0109</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>010154</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>中加中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0106</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>011145</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>华安汇宏精选混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>92.82</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0099</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>009883</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>华润元大核心动力混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>79.99</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>6.41</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0096</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>010304</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化创盈混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>90.48</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0087</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>003760</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>国泰中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>86.24</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0074</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>009336</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>平安中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>90.83</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>005111</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>泰康泉林量化价值精选混合C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>92.96</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>620002</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>金元顺安成长动力混合</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>77.77</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>009337</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>平安中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>90.83</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>006784</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>红土创新中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>006783</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>红土创新中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>011255</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>长江量化科技精选一个月滚动持有股票型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>91.33</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>004790</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>富荣中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>91.66</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>004791</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>富荣中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>91.66</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>003761</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>国泰中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>86.24</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>010246</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化先行混合C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>90.58</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>010067</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>方正富邦中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>91.06</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>63</v>
+      </c>
+      <c r="D2" t="n">
+        <v>50.86</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>65</v>
+      </c>
+      <c r="D3" t="n">
+        <v>39.7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>42</v>
+      </c>
+      <c r="D4" t="n">
+        <v>15.83</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>10</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>7.85</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300223-北京君正.xlsx
+++ b/数据整理/stocks/A股/创业板/300223-北京君正.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -7649,7 +7650,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7660,17 +7661,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -7680,14 +7701,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>63</v>
-      </c>
-      <c r="D2" t="n">
-        <v>50.86</v>
+          <t>320007</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>诺安成长混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>246.16</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.52</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>14.4004</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -7696,14 +7739,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>65</v>
-      </c>
-      <c r="D3" t="n">
-        <v>39.7</v>
+          <t>180031</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>银华中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>39.15</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.08</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.8244</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -7712,14 +7777,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>42</v>
-      </c>
-      <c r="D4" t="n">
-        <v>15.83</v>
+          <t>310358</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>申万菱信新经济混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>41.92</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>77.32</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.5217</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -7728,14 +7815,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>2</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1.17</v>
+          <t>161914</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>万家创业板2年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>15.74</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>95.20</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.78</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.0672</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -7744,13 +7853,1383 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>270021</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发聚瑞混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>24.67</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.75</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.7302</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>014420</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中欧成长领航一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>24.26</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>50.50</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.7035</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009447</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>财通资管科技创新一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>13.37</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>88.02</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.5228</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>519957</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>长信睿进灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>15.70</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>44.52</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3203</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>519956</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>长信睿进灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>15.69</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>44.52</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3201</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>012210</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>申万菱信智能汽车股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>82.52</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2632</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>013610</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中信保诚前瞻优势混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>16.85</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>58.37</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2292</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>506007</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>广发科创板两年定开混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.08</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1844</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>161915</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>万家创业板2年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>95.20</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>6.78</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1600</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>014421</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中欧成长领航一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>50.50</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1415</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>012051</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>申万菱信乐道三年持有期混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>81.64</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1376</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>001322</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>东吴新趋势价值线灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>91.42</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1063</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>012211</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>申万菱信智能汽车股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>82.52</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0774</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>620001</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>金元顺安宝石动力混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>56.14</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0732</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>013634</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>申万菱信双利混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>7.83</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>22.26</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0642</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>000522</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华润元大信息传媒科技混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>70.63</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0640</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>011832</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>西部利得中证人工智能主题指数增强型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.39</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0531</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>010026</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>广发聚瑞混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.75</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0317</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>011833</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>西部利得中证人工智能主题指数增强型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93.39</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0242</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>000767</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>华富国泰民安灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>87.43</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0173</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>004223</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>金信多策略精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>93.14</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0166</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>000531</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>东吴阿尔法灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>90.44</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0147</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>004930</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>华润元大价值优选混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>65.19</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0136</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>009882</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>华润元大核心动力混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>68.63</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>6.11</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0134</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>004931</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>华润元大价值优选混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>65.19</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>013635</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>申万菱信双利混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>22.26</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>009883</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>华润元大核心动力混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>68.63</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>6.11</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>009336</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>平安中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>87.90</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>009337</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>平安中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>87.90</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>519165</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>新华鑫利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>74.84</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>005021</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>渤海汇金量化汇盈灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>92.66</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>010066</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>方正富邦中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>91.02</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>010067</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>方正富邦中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>91.02</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>37</v>
+      </c>
+      <c r="D2" t="n">
+        <v>23.12</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>63</v>
+      </c>
+      <c r="D3" t="n">
+        <v>50.86</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>65</v>
+      </c>
+      <c r="D4" t="n">
+        <v>39.7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>42</v>
+      </c>
+      <c r="D5" t="n">
+        <v>15.83</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>10</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>7.85</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300223-北京君正.xlsx
+++ b/数据整理/stocks/A股/创业板/300223-北京君正.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -9112,7 +9113,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9123,17 +9124,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -9143,14 +9164,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>37</v>
-      </c>
-      <c r="D2" t="n">
-        <v>23.12</v>
+          <t>320007</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>诺安成长混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>266.36</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.00</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>18.6452</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -9159,14 +9202,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>63</v>
-      </c>
-      <c r="D3" t="n">
-        <v>50.86</v>
+          <t>310358</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>申万菱信新经济混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>36.94</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.54</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.7657</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -9175,14 +9240,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>65</v>
-      </c>
-      <c r="D4" t="n">
-        <v>39.7</v>
+          <t>161914</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>万家创业板2年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>16.18</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.57</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.0630</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -9191,14 +9278,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>42</v>
-      </c>
-      <c r="D5" t="n">
-        <v>15.83</v>
+          <t>270021</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发聚瑞混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>22.98</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.10</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.9652</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -9207,14 +9316,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>2</v>
-      </c>
-      <c r="D6" t="n">
-        <v>1.17</v>
+          <t>001404</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>招商移动互联网产业股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>16.20</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.39</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.7841</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="7">
@@ -9223,13 +9354,1361 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>257020</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国联安精选混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>10.51</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.38</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4730</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011488</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>申万菱信乐享混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>10.96</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.83</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4373</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>519957</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>长信睿进灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>11.36</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>55.39</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3715</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>519956</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>长信睿进灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>11.35</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>55.39</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3711</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>012210</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>申万菱信智能汽车股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>89.21</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.52</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3058</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>008655</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>招商科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.81</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1845</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>012051</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>申万菱信乐道三年持有期混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>89.91</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1599</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>161915</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>万家创业板2年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>6.57</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1590</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>002295</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>广发稳安灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>82.44</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.78</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1064</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>012211</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>申万菱信智能汽车股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>89.21</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>6.52</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0841</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>000522</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华润元大信息传媒科技混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>86.82</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0743</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>013634</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>申万菱信双利混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>7.09</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>24.69</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0681</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>005310</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>广发电子信息传媒产业精选股票A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>91.53</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0576</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>008656</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>招商科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>92.81</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0562</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>000531</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>东吴阿尔法灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>92.43</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0196</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>010026</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>广发聚瑞混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.10</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0193</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>620007</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>金元顺安优质精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>51.79</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0169</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>001375</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>金元顺安优质精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>51.79</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0155</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>009882</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>华润元大核心动力混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>71.40</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>6.96</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0097</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>004931</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>华润元大价值优选混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>79.25</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0088</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>013903</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>国泰君安信息行业混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>81.24</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0084</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>004930</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>华润元大价值优选混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>79.25</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0073</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>001731</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>广发百发大数据策略价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>87.68</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>001732</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>广发百发大数据策略价值灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>87.68</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>013635</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>申万菱信双利混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>24.69</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0065</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>009883</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>华润元大核心动力混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>71.40</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>6.96</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>010236</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>广发电子信息传媒产业精选股票C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>91.53</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>014581</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>东吴阿尔法灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>92.43</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>008604</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>广发稳安灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>82.44</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>5.78</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>519165</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>新华鑫利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>45.16</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>010066</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>方正富邦中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>010067</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>方正富邦中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>37</v>
+      </c>
+      <c r="D2" t="n">
+        <v>26.27</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>37</v>
+      </c>
+      <c r="D3" t="n">
+        <v>23.12</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>63</v>
+      </c>
+      <c r="D4" t="n">
+        <v>50.86</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>65</v>
+      </c>
+      <c r="D5" t="n">
+        <v>39.7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>42</v>
+      </c>
+      <c r="D6" t="n">
+        <v>15.83</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>2</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>10</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>7.85</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300223-北京君正.xlsx
+++ b/数据整理/stocks/A股/创业板/300223-北京君正.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="D2" t="n">
-        <v>26.27</v>
+        <v>15.12</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>37</v>
       </c>
       <c r="D3" t="n">
-        <v>23.12</v>
+        <v>26.27</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>63</v>
+        <v>37</v>
       </c>
       <c r="D4" t="n">
-        <v>50.86</v>
+        <v>23.12</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D5" t="n">
-        <v>39.7</v>
+        <v>50.86</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>42</v>
+        <v>65</v>
       </c>
       <c r="D6" t="n">
-        <v>15.83</v>
+        <v>39.7</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>42</v>
       </c>
       <c r="D7" t="n">
-        <v>1.17</v>
+        <v>15.83</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>10</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>7.85</v>
       </c>
     </row>
@@ -605,7 +622,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H38"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -666,26 +683,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>266.36</t>
+          <t>239.83</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.05</t>
+          <t>85.08</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>7.00</t>
+          <t>5.62</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>18.6452</t>
+          <t>13.4784</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -694,36 +711,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>310358</t>
+          <t>270021</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>申万菱信新经济混合</t>
+          <t>广发聚瑞混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>36.94</t>
+          <t>17.58</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.54</t>
+          <t>93.91</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.78</t>
+          <t>4.01</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.7657</t>
+          <t>0.7050</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -732,36 +749,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>161914</t>
+          <t>014855</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>万家创业板2年定期开放混合A</t>
+          <t>嘉实中证半导体指数增强C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>16.18</t>
+          <t>8.23</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>94.58</t>
+          <t>93.19</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>6.57</t>
+          <t>6.31</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1.0630</t>
+          <t>0.5193</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -770,32 +787,32 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>270021</t>
+          <t>519956</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>广发聚瑞混合A</t>
+          <t>长信睿进灵活配置混合C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>22.98</t>
+          <t>6.86</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>94.10</t>
+          <t>39.13</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4.20</t>
+          <t>2.15</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.9652</t>
+          <t>0.1475</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -808,36 +825,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>001404</t>
+          <t>013000</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>招商移动互联网产业股票</t>
+          <t>广发盛泽一年持有期混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>16.20</t>
+          <t>2.29</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>92.39</t>
+          <t>82.39</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>4.84</t>
+          <t>3.57</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.7841</t>
+          <t>0.0818</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7">
@@ -846,36 +863,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>257020</t>
+          <t>014854</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>国联安精选混合</t>
+          <t>嘉实中证半导体指数增强A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>10.51</t>
+          <t>1.03</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>92.38</t>
+          <t>93.19</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>4.50</t>
+          <t>6.31</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.4730</t>
+          <t>0.0650</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8">
@@ -884,36 +901,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>011488</t>
+          <t>000522</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>申万菱信乐享混合</t>
+          <t>华润元大信息传媒科技混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>10.96</t>
+          <t>1.42</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>91.83</t>
+          <t>71.23</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>3.99</t>
+          <t>3.66</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.4373</t>
+          <t>0.0520</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9">
@@ -922,36 +939,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>519957</t>
+          <t>010026</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>长信睿进灵活配置混合A</t>
+          <t>广发聚瑞混合C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>11.36</t>
+          <t>0.50</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>55.39</t>
+          <t>93.91</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>3.27</t>
+          <t>4.01</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.3715</t>
+          <t>0.0200</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10">
@@ -960,36 +977,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>519956</t>
+          <t>000531</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>长信睿进灵活配置混合C</t>
+          <t>东吴阿尔法灵活配置混合A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>11.35</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>55.39</t>
+          <t>90.94</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>3.27</t>
+          <t>5.52</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.3711</t>
+          <t>0.0155</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11">
@@ -998,36 +1015,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>012210</t>
+          <t>013903</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>申万菱信智能汽车股票型证券投资基金A</t>
+          <t>国泰君安信息行业混合</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>4.69</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>89.21</t>
+          <t>71.75</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>6.52</t>
+          <t>4.72</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.3058</t>
+          <t>0.0118</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12">
@@ -1036,36 +1053,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>008655</t>
+          <t>013001</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>招商科技创新混合A</t>
+          <t>广发盛泽一年持有期混合C</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>4.66</t>
+          <t>0.27</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>92.81</t>
+          <t>82.39</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>3.96</t>
+          <t>3.57</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.1845</t>
+          <t>0.0096</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13">
@@ -1074,36 +1091,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>012051</t>
+          <t>004931</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>申万菱信乐道三年持有期混合型证券投资基金</t>
+          <t>华润元大价值优选混合C</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>3.65</t>
+          <t>0.15</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>89.91</t>
+          <t>66.44</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>4.38</t>
+          <t>4.08</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.1599</t>
+          <t>0.0061</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14">
@@ -1112,36 +1129,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>161915</t>
+          <t>004930</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>万家创业板2年定期开放混合C</t>
+          <t>华润元大价值优选混合A</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2.42</t>
+          <t>0.12</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>94.58</t>
+          <t>66.44</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>6.57</t>
+          <t>4.08</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.1590</t>
+          <t>0.0049</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15">
@@ -1150,36 +1167,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>002295</t>
+          <t>014581</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>广发稳安灵活配置混合A</t>
+          <t>东吴阿尔法灵活配置混合C</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>1.84</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>82.44</t>
+          <t>90.94</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>5.78</t>
+          <t>5.52</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.1064</t>
+          <t>0.0017</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16">
@@ -1188,36 +1205,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>012211</t>
+          <t>519957</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>申万菱信智能汽车股票型证券投资基金C</t>
+          <t>长信睿进灵活配置混合A</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>1.29</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>89.21</t>
+          <t>39.13</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>6.52</t>
+          <t>2.15</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.0841</t>
+          <t>0.0004</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17">
@@ -1226,834 +1243,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>000522</t>
+          <t>519165</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>华润元大信息传媒科技混合</t>
+          <t>新华鑫利灵活配置混合</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>1.48</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>86.82</t>
+          <t>25.03</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>5.02</t>
+          <t>0.90</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0.0743</t>
+          <t>0.0004</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>013634</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>申万菱信双利混合A</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>7.09</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>24.69</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>0.96</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.0681</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>005310</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>广发电子信息传媒产业精选股票A</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>1.98</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>91.53</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>2.91</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.0576</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>008656</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>招商科技创新混合C</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>1.42</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>92.81</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>3.96</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.0562</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
         <v>10</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>000531</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>东吴阿尔法灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>0.35</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>92.43</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>5.61</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.0196</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>010026</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>广发聚瑞混合C</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>0.46</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>94.10</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>4.20</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.0193</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>620007</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>金元顺安优质精选灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>0.75</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>51.79</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>2.25</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>0.0169</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>001375</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>金元顺安优质精选灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>0.69</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>51.79</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>2.25</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>0.0155</t>
-        </is>
-      </c>
-      <c r="H24" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>009882</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>华润元大核心动力混合A</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>0.14</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>71.40</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>6.96</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>0.0097</t>
-        </is>
-      </c>
-      <c r="H25" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>004931</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>华润元大价值优选混合C</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>0.18</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>79.25</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>4.89</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>0.0088</t>
-        </is>
-      </c>
-      <c r="H26" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>013903</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>国泰君安信息行业混合</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>0.25</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>81.24</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>3.37</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>0.0084</t>
-        </is>
-      </c>
-      <c r="H27" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>004930</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>华润元大价值优选混合A</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>0.15</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>79.25</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>4.89</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>0.0073</t>
-        </is>
-      </c>
-      <c r="H28" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="2" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>001731</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>广发百发大数据策略价值灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>0.13</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>87.68</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>5.06</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>0.0066</t>
-        </is>
-      </c>
-      <c r="H29" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="2" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>001732</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>广发百发大数据策略价值灵活配置混合E</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>0.13</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>87.68</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>5.06</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>0.0066</t>
-        </is>
-      </c>
-      <c r="H30" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="2" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>013635</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>申万菱信双利混合C</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>0.68</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>24.69</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>0.96</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>0.0065</t>
-        </is>
-      </c>
-      <c r="H31" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>009883</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>华润元大核心动力混合C</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>0.09</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>71.40</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>6.96</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>0.0063</t>
-        </is>
-      </c>
-      <c r="H32" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="2" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>010236</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>广发电子信息传媒产业精选股票C</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>0.19</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>91.53</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>2.91</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>0.0055</t>
-        </is>
-      </c>
-      <c r="H33" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="2" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>014581</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>东吴阿尔法灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>0.06</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>92.43</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>5.61</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>0.0034</t>
-        </is>
-      </c>
-      <c r="H34" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="2" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>008604</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>广发稳安灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>82.44</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>5.78</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>0.0012</t>
-        </is>
-      </c>
-      <c r="H35" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="2" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>519165</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>新华鑫利灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>0.05</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>45.16</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>1.82</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>0.0009</t>
-        </is>
-      </c>
-      <c r="H36" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="2" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>010066</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>方正富邦中证500指数增强A</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>93.77</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>0.67</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>0.0001</t>
-        </is>
-      </c>
-      <c r="H37" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="2" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>010067</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>方正富邦中证500指数增强C</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>93.77</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>0.67</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>0.0001</t>
-        </is>
-      </c>
-      <c r="H38" t="n">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -2128,26 +1347,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>246.16</t>
+          <t>266.36</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>92.52</t>
+          <t>94.05</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.85</t>
+          <t>7.00</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>14.4004</t>
+          <t>18.6452</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -2156,36 +1375,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>180031</t>
+          <t>310358</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>银华中小盘精选混合</t>
+          <t>申万菱信新经济混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>39.15</t>
+          <t>36.94</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.08</t>
+          <t>93.54</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.66</t>
+          <t>4.78</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.8244</t>
+          <t>1.7657</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -2194,32 +1413,32 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>310358</t>
+          <t>161914</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>申万菱信新经济混合</t>
+          <t>万家创业板2年定期开放混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>41.92</t>
+          <t>16.18</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>77.32</t>
+          <t>94.58</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.63</t>
+          <t>6.57</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1.5217</t>
+          <t>1.0630</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -2232,36 +1451,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>161914</t>
+          <t>270021</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>万家创业板2年定期开放混合A</t>
+          <t>广发聚瑞混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>15.74</t>
+          <t>22.98</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>95.20</t>
+          <t>94.10</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>6.78</t>
+          <t>4.20</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>1.0672</t>
+          <t>0.9652</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -2270,36 +1489,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>270021</t>
+          <t>001404</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>广发聚瑞混合A</t>
+          <t>招商移动互联网产业股票</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>24.67</t>
+          <t>16.20</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>93.75</t>
+          <t>92.39</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2.96</t>
+          <t>4.84</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.7302</t>
+          <t>0.7841</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7">
@@ -2308,36 +1527,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>014420</t>
+          <t>257020</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>中欧成长领航一年持有混合A</t>
+          <t>国联安精选混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>24.26</t>
+          <t>10.51</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>50.50</t>
+          <t>92.38</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2.90</t>
+          <t>4.50</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.7035</t>
+          <t>0.4730</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8">
@@ -2346,32 +1565,32 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>009447</t>
+          <t>011488</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>财通资管科技创新一年定期开放混合</t>
+          <t>申万菱信乐享混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>13.37</t>
+          <t>10.96</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>88.02</t>
+          <t>91.83</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>3.91</t>
+          <t>3.99</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.5228</t>
+          <t>0.4373</t>
         </is>
       </c>
       <c r="H8" t="n">
@@ -2394,26 +1613,26 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>15.70</t>
+          <t>11.36</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>44.52</t>
+          <t>55.39</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2.04</t>
+          <t>3.27</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.3203</t>
+          <t>0.3715</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10">
@@ -2432,26 +1651,26 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>15.69</t>
+          <t>11.35</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>44.52</t>
+          <t>55.39</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2.04</t>
+          <t>3.27</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.3201</t>
+          <t>0.3711</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11">
@@ -2470,26 +1689,26 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>4.76</t>
+          <t>4.69</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>82.52</t>
+          <t>89.21</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>5.53</t>
+          <t>6.52</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.2632</t>
+          <t>0.3058</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12">
@@ -2498,36 +1717,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>013610</t>
+          <t>008655</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>中信保诚前瞻优势混合</t>
+          <t>招商科技创新混合A</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>16.85</t>
+          <t>4.66</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>58.37</t>
+          <t>92.81</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>1.36</t>
+          <t>3.96</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.2292</t>
+          <t>0.1845</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13">
@@ -2536,36 +1755,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>506007</t>
+          <t>012051</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>广发科创板两年定开混合</t>
+          <t>申万菱信乐道三年持有期混合型证券投资基金</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>5.33</t>
+          <t>3.65</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>92.08</t>
+          <t>89.91</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>3.46</t>
+          <t>4.38</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.1844</t>
+          <t>0.1599</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14">
@@ -2584,26 +1803,26 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2.36</t>
+          <t>2.42</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>95.20</t>
+          <t>94.58</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>6.78</t>
+          <t>6.57</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.1600</t>
+          <t>0.1590</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15">
@@ -2612,36 +1831,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>014421</t>
+          <t>002295</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>中欧成长领航一年持有混合C</t>
+          <t>广发稳安灵活配置混合A</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>4.88</t>
+          <t>1.84</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>50.50</t>
+          <t>82.44</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2.90</t>
+          <t>5.78</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.1415</t>
+          <t>0.1064</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16">
@@ -2650,36 +1869,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>012051</t>
+          <t>012211</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>申万菱信乐道三年持有期混合型证券投资基金</t>
+          <t>申万菱信智能汽车股票型证券投资基金C</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>3.38</t>
+          <t>1.29</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>81.64</t>
+          <t>89.21</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>4.07</t>
+          <t>6.52</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.1376</t>
+          <t>0.0841</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17">
@@ -2688,36 +1907,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>001322</t>
+          <t>000522</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>东吴新趋势价值线灵活配置混合</t>
+          <t>华润元大信息传媒科技混合</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>1.99</t>
+          <t>1.48</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>91.42</t>
+          <t>86.82</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>5.34</t>
+          <t>5.02</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0.1063</t>
+          <t>0.0743</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18">
@@ -2726,36 +1945,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>012211</t>
+          <t>013634</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>申万菱信智能汽车股票型证券投资基金C</t>
+          <t>申万菱信双利混合A</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>1.40</t>
+          <t>7.09</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>82.52</t>
+          <t>24.69</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>5.53</t>
+          <t>0.96</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>0.0774</t>
+          <t>0.0681</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19">
@@ -2764,36 +1983,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>620001</t>
+          <t>005310</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>金元顺安宝石动力混合</t>
+          <t>广发电子信息传媒产业精选股票A</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>1.90</t>
+          <t>1.98</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>56.14</t>
+          <t>91.53</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>3.85</t>
+          <t>2.91</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>0.0732</t>
+          <t>0.0576</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20">
@@ -2802,32 +2021,32 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>013634</t>
+          <t>008656</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>申万菱信双利混合A</t>
+          <t>招商科技创新混合C</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>7.83</t>
+          <t>1.42</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>22.26</t>
+          <t>92.81</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>0.82</t>
+          <t>3.96</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>0.0642</t>
+          <t>0.0562</t>
         </is>
       </c>
       <c r="H20" t="n">
@@ -2840,36 +2059,36 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>000522</t>
+          <t>000531</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>华润元大信息传媒科技混合</t>
+          <t>东吴阿尔法灵活配置混合</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>1.50</t>
+          <t>0.35</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>70.63</t>
+          <t>92.43</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>4.27</t>
+          <t>5.61</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>0.0640</t>
+          <t>0.0196</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22">
@@ -2878,32 +2097,32 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>011832</t>
+          <t>010026</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>西部利得中证人工智能主题指数增强型证券投资基金A</t>
+          <t>广发聚瑞混合C</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2.02</t>
+          <t>0.46</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>93.39</t>
+          <t>94.10</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2.63</t>
+          <t>4.20</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>0.0531</t>
+          <t>0.0193</t>
         </is>
       </c>
       <c r="H22" t="n">
@@ -2916,36 +2135,36 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>010026</t>
+          <t>620007</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>广发聚瑞混合C</t>
+          <t>金元顺安优质精选灵活配置混合A</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>1.07</t>
+          <t>0.75</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>93.75</t>
+          <t>51.79</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2.96</t>
+          <t>2.25</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>0.0317</t>
+          <t>0.0169</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24">
@@ -2954,36 +2173,36 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>011833</t>
+          <t>001375</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>西部利得中证人工智能主题指数增强型证券投资基金C</t>
+          <t>金元顺安优质精选灵活配置混合C</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>0.92</t>
+          <t>0.69</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>93.39</t>
+          <t>51.79</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2.63</t>
+          <t>2.25</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>0.0242</t>
+          <t>0.0155</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25">
@@ -2992,36 +2211,36 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>000767</t>
+          <t>009882</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>华富国泰民安灵活配置混合</t>
+          <t>华润元大核心动力混合A</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>0.42</t>
+          <t>0.14</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>87.43</t>
+          <t>71.40</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>4.13</t>
+          <t>6.96</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>0.0173</t>
+          <t>0.0097</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
@@ -3030,36 +2249,36 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>004223</t>
+          <t>004931</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>金信多策略精选灵活配置混合</t>
+          <t>华润元大价值优选混合C</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>0.36</t>
+          <t>0.18</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>93.14</t>
+          <t>79.25</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>4.62</t>
+          <t>4.89</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>0.0166</t>
+          <t>0.0088</t>
         </is>
       </c>
       <c r="H26" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27">
@@ -3068,36 +2287,36 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>000531</t>
+          <t>013903</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>东吴阿尔法灵活配置混合</t>
+          <t>国泰君安信息行业混合</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>0.29</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>90.44</t>
+          <t>81.24</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>5.06</t>
+          <t>3.37</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>0.0147</t>
+          <t>0.0084</t>
         </is>
       </c>
       <c r="H27" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28">
@@ -3116,22 +2335,22 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>0.32</t>
+          <t>0.15</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>65.19</t>
+          <t>79.25</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>4.25</t>
+          <t>4.89</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>0.0136</t>
+          <t>0.0073</t>
         </is>
       </c>
       <c r="H28" t="n">
@@ -3144,36 +2363,36 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>009882</t>
+          <t>001731</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>华润元大核心动力混合A</t>
+          <t>广发百发大数据策略价值灵活配置混合A</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>0.22</t>
+          <t>0.13</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>68.63</t>
+          <t>87.68</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>6.11</t>
+          <t>5.06</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>0.0134</t>
+          <t>0.0066</t>
         </is>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30">
@@ -3182,36 +2401,36 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>004931</t>
+          <t>001732</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>华润元大价值优选混合C</t>
+          <t>广发百发大数据策略价值灵活配置混合E</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>0.18</t>
+          <t>0.13</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>65.19</t>
+          <t>87.68</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>4.25</t>
+          <t>5.06</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>0.0076</t>
+          <t>0.0066</t>
         </is>
       </c>
       <c r="H30" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31">
@@ -3230,26 +2449,26 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>0.75</t>
+          <t>0.68</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>22.26</t>
+          <t>24.69</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>0.82</t>
+          <t>0.96</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>0.0062</t>
+          <t>0.0065</t>
         </is>
       </c>
       <c r="H31" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="32">
@@ -3273,21 +2492,21 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>68.63</t>
+          <t>71.40</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>6.11</t>
+          <t>6.96</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>0.0055</t>
+          <t>0.0063</t>
         </is>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
@@ -3296,36 +2515,36 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>009336</t>
+          <t>010236</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>平安中证500指数增强A</t>
+          <t>广发电子信息传媒产业精选股票C</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>0.30</t>
+          <t>0.19</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>87.90</t>
+          <t>91.53</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>1.53</t>
+          <t>2.91</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>0.0046</t>
+          <t>0.0055</t>
         </is>
       </c>
       <c r="H33" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="34">
@@ -3334,36 +2553,36 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>009337</t>
+          <t>014581</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>平安中证500指数增强C</t>
+          <t>东吴阿尔法灵活配置混合C</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>0.14</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>87.90</t>
+          <t>92.43</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>1.53</t>
+          <t>5.61</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>0.0021</t>
+          <t>0.0034</t>
         </is>
       </c>
       <c r="H34" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="35">
@@ -3372,36 +2591,36 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>519165</t>
+          <t>008604</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>新华鑫利灵活配置混合</t>
+          <t>广发稳安灵活配置混合C</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>74.84</t>
+          <t>82.44</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>3.32</t>
+          <t>5.78</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>0.0017</t>
+          <t>0.0012</t>
         </is>
       </c>
       <c r="H35" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36">
@@ -3410,36 +2629,36 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>005021</t>
+          <t>519165</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>渤海汇金量化汇盈灵活配置混合</t>
+          <t>新华鑫利灵活配置混合</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>92.66</t>
+          <t>45.16</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>1.12</t>
+          <t>1.82</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>0.0002</t>
+          <t>0.0009</t>
         </is>
       </c>
       <c r="H36" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="37">
@@ -3458,17 +2677,17 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>91.02</t>
+          <t>93.77</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>0.55</t>
+          <t>0.67</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
@@ -3477,7 +2696,7 @@
         </is>
       </c>
       <c r="H37" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="38">
@@ -3501,12 +2720,12 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>91.02</t>
+          <t>93.77</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>0.55</t>
+          <t>0.67</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
@@ -3515,7 +2734,7 @@
         </is>
       </c>
       <c r="H38" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -3524,6 +2743,1468 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H38"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>320007</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>诺安成长混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>246.16</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.52</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>14.4004</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>180031</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>银华中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>39.15</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.08</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.8244</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>310358</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>申万菱信新经济混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>41.92</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>77.32</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.5217</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>161914</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>万家创业板2年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>15.74</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>95.20</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.78</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.0672</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>270021</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发聚瑞混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>24.67</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.75</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.7302</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>014420</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中欧成长领航一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>24.26</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>50.50</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.7035</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009447</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>财通资管科技创新一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>13.37</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>88.02</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.5228</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>519957</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>长信睿进灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>15.70</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>44.52</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3203</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>519956</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>长信睿进灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>15.69</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>44.52</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3201</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>012210</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>申万菱信智能汽车股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>82.52</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2632</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>013610</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中信保诚前瞻优势混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>16.85</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>58.37</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2292</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>506007</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>广发科创板两年定开混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.08</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1844</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>161915</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>万家创业板2年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>95.20</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>6.78</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1600</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>014421</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中欧成长领航一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>50.50</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1415</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>012051</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>申万菱信乐道三年持有期混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>81.64</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1376</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>001322</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>东吴新趋势价值线灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>91.42</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1063</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>012211</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>申万菱信智能汽车股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>82.52</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0774</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>620001</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>金元顺安宝石动力混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>56.14</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0732</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>013634</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>申万菱信双利混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>7.83</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>22.26</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0642</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>000522</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华润元大信息传媒科技混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>70.63</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0640</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>011832</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>西部利得中证人工智能主题指数增强型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.39</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0531</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>010026</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>广发聚瑞混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.75</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0317</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>011833</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>西部利得中证人工智能主题指数增强型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93.39</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0242</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>000767</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>华富国泰民安灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>87.43</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0173</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>004223</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>金信多策略精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>93.14</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0166</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>000531</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>东吴阿尔法灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>90.44</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0147</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>004930</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>华润元大价值优选混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>65.19</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0136</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>009882</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>华润元大核心动力混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>68.63</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>6.11</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0134</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>004931</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>华润元大价值优选混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>65.19</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>013635</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>申万菱信双利混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>22.26</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>009883</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>华润元大核心动力混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>68.63</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>6.11</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>009336</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>平安中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>87.90</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>009337</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>平安中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>87.90</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>519165</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>新华鑫利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>74.84</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>005021</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>渤海汇金量化汇盈灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>92.66</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>010066</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>方正富邦中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>91.02</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>010067</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>方正富邦中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>91.02</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5973,7 +6654,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8497,7 +9178,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -10149,7 +10830,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -10281,7 +10962,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/创业板/300223-北京君正.xlsx
+++ b/数据整理/stocks/A股/创业板/300223-北京君正.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D2" t="n">
-        <v>15.12</v>
+        <v>12.3</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="D3" t="n">
-        <v>26.27</v>
+        <v>15.12</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>37</v>
       </c>
       <c r="D4" t="n">
-        <v>23.12</v>
+        <v>26.27</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>63</v>
+        <v>37</v>
       </c>
       <c r="D5" t="n">
-        <v>50.86</v>
+        <v>23.12</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D6" t="n">
-        <v>39.7</v>
+        <v>50.86</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>42</v>
+        <v>65</v>
       </c>
       <c r="D7" t="n">
-        <v>15.83</v>
+        <v>39.7</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>42</v>
       </c>
       <c r="D8" t="n">
-        <v>1.17</v>
+        <v>15.83</v>
       </c>
     </row>
     <row r="9">
@@ -601,13 +602,29 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>2</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>10</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>7.85</v>
       </c>
     </row>
@@ -616,7 +633,1031 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>002560</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>诺安和鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>82.17</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.68</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.3443</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>008120</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>万家自主创新混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>46.19</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.12</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.4342</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>161914</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>万家创业板2年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>18.86</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>88.38</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.9147</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>008633</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>万家科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>7.49</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.77</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.10</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4569</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>512330</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>南方中证500信息技术指数ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>10.51</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>99.47</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2281</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>008121</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>万家自主创新混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.12</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2029</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>008634</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>万家科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.77</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.10</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1409</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>161915</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>万家创业板2年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>88.38</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1271</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>007614</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>德邦民裕进取量化精锐股票A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.69</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>007615</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>德邦民裕进取量化精锐股票C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>90.69</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>320007</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>诺安成长混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>248.59</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>82.42</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>11.2611</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>270021</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发聚瑞混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>18.60</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.06</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5933</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>519956</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>长信睿进灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>6.44</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>43.59</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1404</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001322</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>东吴新趋势价值线灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.49</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0938</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>013000</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发盛泽一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>85.08</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0781</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>000522</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华润元大信息传媒科技混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>62.01</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0493</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001323</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>东吴移动互联灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.45</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0290</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>000531</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>东吴阿尔法灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>84.60</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0148</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010026</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>广发聚瑞混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.06</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0140</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>013903</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>国泰君安信息行业混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>84.04</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0113</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>013001</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>广发盛泽一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>85.08</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0088</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>002170</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>东吴移动互联灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.45</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>014581</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>东吴阿尔法灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>84.60</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>519957</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>长信睿进灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>43.59</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1273,1468 +2314,6 @@
       </c>
       <c r="H17" t="n">
         <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H38"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>320007</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>诺安成长混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>266.36</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>94.05</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>7.00</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>18.6452</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>310358</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>申万菱信新经济混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>36.94</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>93.54</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.78</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>1.7657</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>161914</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>万家创业板2年定期开放混合A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>16.18</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>94.58</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>6.57</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>1.0630</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>270021</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>广发聚瑞混合A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>22.98</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>94.10</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>4.20</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.9652</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>001404</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>招商移动互联网产业股票</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>16.20</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>92.39</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>4.84</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.7841</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>257020</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>国联安精选混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>10.51</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>92.38</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>4.50</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.4730</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>011488</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>申万菱信乐享混合</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>10.96</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>91.83</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>3.99</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.4373</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>519957</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>长信睿进灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>11.36</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>55.39</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>3.27</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.3715</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>519956</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>长信睿进灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>11.35</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>55.39</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>3.27</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.3711</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>012210</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>申万菱信智能汽车股票型证券投资基金A</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>4.69</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>89.21</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>6.52</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.3058</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>008655</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>招商科技创新混合A</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>4.66</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>92.81</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>3.96</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.1845</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>012051</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>申万菱信乐道三年持有期混合型证券投资基金</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>3.65</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>89.91</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>4.38</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.1599</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>161915</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>万家创业板2年定期开放混合C</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>2.42</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>94.58</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>6.57</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.1590</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>002295</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>广发稳安灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>1.84</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>82.44</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>5.78</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.1064</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>012211</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>申万菱信智能汽车股票型证券投资基金C</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>1.29</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>89.21</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>6.52</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.0841</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>000522</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>华润元大信息传媒科技混合</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>1.48</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>86.82</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>5.02</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.0743</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>013634</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>申万菱信双利混合A</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>7.09</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>24.69</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>0.96</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.0681</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>005310</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>广发电子信息传媒产业精选股票A</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>1.98</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>91.53</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>2.91</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.0576</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>008656</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>招商科技创新混合C</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>1.42</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>92.81</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>3.96</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.0562</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>000531</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>东吴阿尔法灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>0.35</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>92.43</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>5.61</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.0196</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>010026</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>广发聚瑞混合C</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>0.46</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>94.10</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>4.20</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.0193</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>620007</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>金元顺安优质精选灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>0.75</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>51.79</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>2.25</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>0.0169</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>001375</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>金元顺安优质精选灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>0.69</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>51.79</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>2.25</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>0.0155</t>
-        </is>
-      </c>
-      <c r="H24" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>009882</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>华润元大核心动力混合A</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>0.14</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>71.40</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>6.96</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>0.0097</t>
-        </is>
-      </c>
-      <c r="H25" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>004931</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>华润元大价值优选混合C</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>0.18</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>79.25</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>4.89</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>0.0088</t>
-        </is>
-      </c>
-      <c r="H26" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>013903</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>国泰君安信息行业混合</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>0.25</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>81.24</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>3.37</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>0.0084</t>
-        </is>
-      </c>
-      <c r="H27" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>004930</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>华润元大价值优选混合A</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>0.15</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>79.25</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>4.89</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>0.0073</t>
-        </is>
-      </c>
-      <c r="H28" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="2" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>001731</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>广发百发大数据策略价值灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>0.13</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>87.68</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>5.06</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>0.0066</t>
-        </is>
-      </c>
-      <c r="H29" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="2" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>001732</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>广发百发大数据策略价值灵活配置混合E</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>0.13</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>87.68</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>5.06</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>0.0066</t>
-        </is>
-      </c>
-      <c r="H30" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="2" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>013635</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>申万菱信双利混合C</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>0.68</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>24.69</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>0.96</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>0.0065</t>
-        </is>
-      </c>
-      <c r="H31" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>009883</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>华润元大核心动力混合C</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>0.09</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>71.40</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>6.96</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>0.0063</t>
-        </is>
-      </c>
-      <c r="H32" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="2" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>010236</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>广发电子信息传媒产业精选股票C</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>0.19</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>91.53</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>2.91</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>0.0055</t>
-        </is>
-      </c>
-      <c r="H33" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="2" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>014581</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>东吴阿尔法灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>0.06</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>92.43</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>5.61</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>0.0034</t>
-        </is>
-      </c>
-      <c r="H34" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="2" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>008604</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>广发稳安灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>82.44</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>5.78</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>0.0012</t>
-        </is>
-      </c>
-      <c r="H35" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="2" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>519165</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>新华鑫利灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>0.05</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>45.16</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>1.82</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>0.0009</t>
-        </is>
-      </c>
-      <c r="H36" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="2" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>010066</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>方正富邦中证500指数增强A</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>93.77</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>0.67</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>0.0001</t>
-        </is>
-      </c>
-      <c r="H37" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="2" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>010067</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>方正富邦中证500指数增强C</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>93.77</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>0.67</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>0.0001</t>
-        </is>
-      </c>
-      <c r="H38" t="n">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -2809,26 +2388,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>246.16</t>
+          <t>266.36</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>92.52</t>
+          <t>94.05</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.85</t>
+          <t>7.00</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>14.4004</t>
+          <t>18.6452</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -2837,36 +2416,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>180031</t>
+          <t>310358</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>银华中小盘精选混合</t>
+          <t>申万菱信新经济混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>39.15</t>
+          <t>36.94</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.08</t>
+          <t>93.54</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.66</t>
+          <t>4.78</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.8244</t>
+          <t>1.7657</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -2875,32 +2454,32 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>310358</t>
+          <t>161914</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>申万菱信新经济混合</t>
+          <t>万家创业板2年定期开放混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>41.92</t>
+          <t>16.18</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>77.32</t>
+          <t>94.58</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.63</t>
+          <t>6.57</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1.5217</t>
+          <t>1.0630</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -2913,36 +2492,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>161914</t>
+          <t>270021</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>万家创业板2年定期开放混合A</t>
+          <t>广发聚瑞混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>15.74</t>
+          <t>22.98</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>95.20</t>
+          <t>94.10</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>6.78</t>
+          <t>4.20</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>1.0672</t>
+          <t>0.9652</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -2951,36 +2530,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>270021</t>
+          <t>001404</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>广发聚瑞混合A</t>
+          <t>招商移动互联网产业股票</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>24.67</t>
+          <t>16.20</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>93.75</t>
+          <t>92.39</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2.96</t>
+          <t>4.84</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.7302</t>
+          <t>0.7841</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7">
@@ -2989,36 +2568,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>014420</t>
+          <t>257020</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>中欧成长领航一年持有混合A</t>
+          <t>国联安精选混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>24.26</t>
+          <t>10.51</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>50.50</t>
+          <t>92.38</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2.90</t>
+          <t>4.50</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.7035</t>
+          <t>0.4730</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8">
@@ -3027,32 +2606,32 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>009447</t>
+          <t>011488</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>财通资管科技创新一年定期开放混合</t>
+          <t>申万菱信乐享混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>13.37</t>
+          <t>10.96</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>88.02</t>
+          <t>91.83</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>3.91</t>
+          <t>3.99</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.5228</t>
+          <t>0.4373</t>
         </is>
       </c>
       <c r="H8" t="n">
@@ -3075,26 +2654,26 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>15.70</t>
+          <t>11.36</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>44.52</t>
+          <t>55.39</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2.04</t>
+          <t>3.27</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.3203</t>
+          <t>0.3715</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10">
@@ -3113,26 +2692,26 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>15.69</t>
+          <t>11.35</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>44.52</t>
+          <t>55.39</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2.04</t>
+          <t>3.27</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.3201</t>
+          <t>0.3711</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11">
@@ -3151,26 +2730,26 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>4.76</t>
+          <t>4.69</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>82.52</t>
+          <t>89.21</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>5.53</t>
+          <t>6.52</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.2632</t>
+          <t>0.3058</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12">
@@ -3179,36 +2758,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>013610</t>
+          <t>008655</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>中信保诚前瞻优势混合</t>
+          <t>招商科技创新混合A</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>16.85</t>
+          <t>4.66</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>58.37</t>
+          <t>92.81</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>1.36</t>
+          <t>3.96</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.2292</t>
+          <t>0.1845</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13">
@@ -3217,36 +2796,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>506007</t>
+          <t>012051</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>广发科创板两年定开混合</t>
+          <t>申万菱信乐道三年持有期混合型证券投资基金</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>5.33</t>
+          <t>3.65</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>92.08</t>
+          <t>89.91</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>3.46</t>
+          <t>4.38</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.1844</t>
+          <t>0.1599</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14">
@@ -3265,26 +2844,26 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2.36</t>
+          <t>2.42</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>95.20</t>
+          <t>94.58</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>6.78</t>
+          <t>6.57</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.1600</t>
+          <t>0.1590</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15">
@@ -3293,36 +2872,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>014421</t>
+          <t>002295</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>中欧成长领航一年持有混合C</t>
+          <t>广发稳安灵活配置混合A</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>4.88</t>
+          <t>1.84</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>50.50</t>
+          <t>82.44</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2.90</t>
+          <t>5.78</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.1415</t>
+          <t>0.1064</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16">
@@ -3331,36 +2910,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>012051</t>
+          <t>012211</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>申万菱信乐道三年持有期混合型证券投资基金</t>
+          <t>申万菱信智能汽车股票型证券投资基金C</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>3.38</t>
+          <t>1.29</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>81.64</t>
+          <t>89.21</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>4.07</t>
+          <t>6.52</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.1376</t>
+          <t>0.0841</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17">
@@ -3369,36 +2948,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>001322</t>
+          <t>000522</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>东吴新趋势价值线灵活配置混合</t>
+          <t>华润元大信息传媒科技混合</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>1.99</t>
+          <t>1.48</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>91.42</t>
+          <t>86.82</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>5.34</t>
+          <t>5.02</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0.1063</t>
+          <t>0.0743</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18">
@@ -3407,36 +2986,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>012211</t>
+          <t>013634</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>申万菱信智能汽车股票型证券投资基金C</t>
+          <t>申万菱信双利混合A</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>1.40</t>
+          <t>7.09</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>82.52</t>
+          <t>24.69</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>5.53</t>
+          <t>0.96</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>0.0774</t>
+          <t>0.0681</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19">
@@ -3445,36 +3024,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>620001</t>
+          <t>005310</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>金元顺安宝石动力混合</t>
+          <t>广发电子信息传媒产业精选股票A</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>1.90</t>
+          <t>1.98</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>56.14</t>
+          <t>91.53</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>3.85</t>
+          <t>2.91</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>0.0732</t>
+          <t>0.0576</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20">
@@ -3483,32 +3062,32 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>013634</t>
+          <t>008656</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>申万菱信双利混合A</t>
+          <t>招商科技创新混合C</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>7.83</t>
+          <t>1.42</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>22.26</t>
+          <t>92.81</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>0.82</t>
+          <t>3.96</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>0.0642</t>
+          <t>0.0562</t>
         </is>
       </c>
       <c r="H20" t="n">
@@ -3521,36 +3100,36 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>000522</t>
+          <t>000531</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>华润元大信息传媒科技混合</t>
+          <t>东吴阿尔法灵活配置混合</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>1.50</t>
+          <t>0.35</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>70.63</t>
+          <t>92.43</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>4.27</t>
+          <t>5.61</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>0.0640</t>
+          <t>0.0196</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22">
@@ -3559,32 +3138,32 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>011832</t>
+          <t>010026</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>西部利得中证人工智能主题指数增强型证券投资基金A</t>
+          <t>广发聚瑞混合C</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2.02</t>
+          <t>0.46</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>93.39</t>
+          <t>94.10</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2.63</t>
+          <t>4.20</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>0.0531</t>
+          <t>0.0193</t>
         </is>
       </c>
       <c r="H22" t="n">
@@ -3597,36 +3176,36 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>010026</t>
+          <t>620007</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>广发聚瑞混合C</t>
+          <t>金元顺安优质精选灵活配置混合A</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>1.07</t>
+          <t>0.75</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>93.75</t>
+          <t>51.79</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2.96</t>
+          <t>2.25</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>0.0317</t>
+          <t>0.0169</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24">
@@ -3635,36 +3214,36 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>011833</t>
+          <t>001375</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>西部利得中证人工智能主题指数增强型证券投资基金C</t>
+          <t>金元顺安优质精选灵活配置混合C</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>0.92</t>
+          <t>0.69</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>93.39</t>
+          <t>51.79</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2.63</t>
+          <t>2.25</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>0.0242</t>
+          <t>0.0155</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25">
@@ -3673,36 +3252,36 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>000767</t>
+          <t>009882</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>华富国泰民安灵活配置混合</t>
+          <t>华润元大核心动力混合A</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>0.42</t>
+          <t>0.14</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>87.43</t>
+          <t>71.40</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>4.13</t>
+          <t>6.96</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>0.0173</t>
+          <t>0.0097</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
@@ -3711,36 +3290,36 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>004223</t>
+          <t>004931</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>金信多策略精选灵活配置混合</t>
+          <t>华润元大价值优选混合C</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>0.36</t>
+          <t>0.18</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>93.14</t>
+          <t>79.25</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>4.62</t>
+          <t>4.89</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>0.0166</t>
+          <t>0.0088</t>
         </is>
       </c>
       <c r="H26" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27">
@@ -3749,36 +3328,36 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>000531</t>
+          <t>013903</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>东吴阿尔法灵活配置混合</t>
+          <t>国泰君安信息行业混合</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>0.29</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>90.44</t>
+          <t>81.24</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>5.06</t>
+          <t>3.37</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>0.0147</t>
+          <t>0.0084</t>
         </is>
       </c>
       <c r="H27" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28">
@@ -3797,22 +3376,22 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>0.32</t>
+          <t>0.15</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>65.19</t>
+          <t>79.25</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>4.25</t>
+          <t>4.89</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>0.0136</t>
+          <t>0.0073</t>
         </is>
       </c>
       <c r="H28" t="n">
@@ -3825,36 +3404,36 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>009882</t>
+          <t>001731</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>华润元大核心动力混合A</t>
+          <t>广发百发大数据策略价值灵活配置混合A</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>0.22</t>
+          <t>0.13</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>68.63</t>
+          <t>87.68</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>6.11</t>
+          <t>5.06</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>0.0134</t>
+          <t>0.0066</t>
         </is>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30">
@@ -3863,36 +3442,36 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>004931</t>
+          <t>001732</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>华润元大价值优选混合C</t>
+          <t>广发百发大数据策略价值灵活配置混合E</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>0.18</t>
+          <t>0.13</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>65.19</t>
+          <t>87.68</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>4.25</t>
+          <t>5.06</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>0.0076</t>
+          <t>0.0066</t>
         </is>
       </c>
       <c r="H30" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31">
@@ -3911,26 +3490,26 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>0.75</t>
+          <t>0.68</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>22.26</t>
+          <t>24.69</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>0.82</t>
+          <t>0.96</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>0.0062</t>
+          <t>0.0065</t>
         </is>
       </c>
       <c r="H31" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="32">
@@ -3954,21 +3533,21 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>68.63</t>
+          <t>71.40</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>6.11</t>
+          <t>6.96</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>0.0055</t>
+          <t>0.0063</t>
         </is>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
@@ -3977,36 +3556,36 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>009336</t>
+          <t>010236</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>平安中证500指数增强A</t>
+          <t>广发电子信息传媒产业精选股票C</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>0.30</t>
+          <t>0.19</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>87.90</t>
+          <t>91.53</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>1.53</t>
+          <t>2.91</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>0.0046</t>
+          <t>0.0055</t>
         </is>
       </c>
       <c r="H33" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="34">
@@ -4015,36 +3594,36 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>009337</t>
+          <t>014581</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>平安中证500指数增强C</t>
+          <t>东吴阿尔法灵活配置混合C</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>0.14</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>87.90</t>
+          <t>92.43</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>1.53</t>
+          <t>5.61</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>0.0021</t>
+          <t>0.0034</t>
         </is>
       </c>
       <c r="H34" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="35">
@@ -4053,36 +3632,36 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>519165</t>
+          <t>008604</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>新华鑫利灵活配置混合</t>
+          <t>广发稳安灵活配置混合C</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>74.84</t>
+          <t>82.44</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>3.32</t>
+          <t>5.78</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>0.0017</t>
+          <t>0.0012</t>
         </is>
       </c>
       <c r="H35" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36">
@@ -4091,36 +3670,36 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>005021</t>
+          <t>519165</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>渤海汇金量化汇盈灵活配置混合</t>
+          <t>新华鑫利灵活配置混合</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>92.66</t>
+          <t>45.16</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>1.12</t>
+          <t>1.82</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>0.0002</t>
+          <t>0.0009</t>
         </is>
       </c>
       <c r="H36" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="37">
@@ -4139,17 +3718,17 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>91.02</t>
+          <t>93.77</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>0.55</t>
+          <t>0.67</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
@@ -4158,7 +3737,7 @@
         </is>
       </c>
       <c r="H37" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="38">
@@ -4182,12 +3761,12 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>91.02</t>
+          <t>93.77</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>0.55</t>
+          <t>0.67</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
@@ -4196,7 +3775,7 @@
         </is>
       </c>
       <c r="H38" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -4205,6 +3784,1468 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H38"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>320007</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>诺安成长混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>246.16</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.52</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>14.4004</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>180031</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>银华中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>39.15</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.08</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.8244</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>310358</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>申万菱信新经济混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>41.92</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>77.32</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.5217</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>161914</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>万家创业板2年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>15.74</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>95.20</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.78</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.0672</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>270021</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发聚瑞混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>24.67</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.75</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.7302</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>014420</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中欧成长领航一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>24.26</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>50.50</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.7035</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009447</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>财通资管科技创新一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>13.37</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>88.02</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.5228</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>519957</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>长信睿进灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>15.70</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>44.52</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3203</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>519956</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>长信睿进灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>15.69</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>44.52</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3201</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>012210</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>申万菱信智能汽车股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>82.52</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2632</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>013610</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中信保诚前瞻优势混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>16.85</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>58.37</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2292</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>506007</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>广发科创板两年定开混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.08</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1844</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>161915</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>万家创业板2年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>95.20</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>6.78</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1600</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>014421</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中欧成长领航一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>50.50</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1415</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>012051</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>申万菱信乐道三年持有期混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>81.64</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1376</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>001322</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>东吴新趋势价值线灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>91.42</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1063</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>012211</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>申万菱信智能汽车股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>82.52</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0774</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>620001</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>金元顺安宝石动力混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>56.14</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0732</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>013634</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>申万菱信双利混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>7.83</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>22.26</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0642</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>000522</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华润元大信息传媒科技混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>70.63</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0640</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>011832</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>西部利得中证人工智能主题指数增强型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.39</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0531</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>010026</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>广发聚瑞混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.75</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0317</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>011833</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>西部利得中证人工智能主题指数增强型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93.39</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0242</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>000767</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>华富国泰民安灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>87.43</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0173</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>004223</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>金信多策略精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>93.14</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0166</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>000531</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>东吴阿尔法灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>90.44</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0147</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>004930</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>华润元大价值优选混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>65.19</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0136</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>009882</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>华润元大核心动力混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>68.63</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>6.11</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0134</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>004931</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>华润元大价值优选混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>65.19</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>013635</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>申万菱信双利混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>22.26</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>009883</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>华润元大核心动力混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>68.63</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>6.11</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>009336</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>平安中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>87.90</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>009337</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>平安中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>87.90</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>519165</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>新华鑫利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>74.84</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>005021</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>渤海汇金量化汇盈灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>92.66</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>010066</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>方正富邦中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>91.02</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>010067</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>方正富邦中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>91.02</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6654,7 +7695,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9178,7 +10219,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -10830,7 +11871,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -10960,440 +12001,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H11"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>002560</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>诺安和鑫灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>82.17</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>94.68</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.07</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>3.3443</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>008120</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>万家自主创新混合A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>46.19</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>92.12</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>5.27</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>2.4342</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>161914</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>万家创业板2年定期开放混合A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>18.86</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>88.38</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>4.85</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.9147</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>008633</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>万家科技创新混合A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>7.49</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>90.77</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>6.10</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.4569</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>512330</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>南方中证500信息技术指数ETF</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>10.51</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>99.47</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2.17</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.2281</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>008121</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>万家自主创新混合C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>3.85</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>92.12</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>5.27</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.2029</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>008634</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>万家科技创新混合C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>2.31</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>90.77</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>6.10</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.1409</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>161915</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>万家创业板2年定期开放混合C</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>2.62</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>88.38</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>4.85</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.1271</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>007614</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>德邦民裕进取量化精锐股票A</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0.43</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>90.69</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>1.04</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0045</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>007615</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>德邦民裕进取量化精锐股票C</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>90.69</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>1.04</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0003</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>